--- a/data_excel/751.xlsx
+++ b/data_excel/751.xlsx
@@ -99,13 +99,14 @@
     <t>放進</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>snv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>+</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>pv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -132,8 +133,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -145,7 +145,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -157,6 +157,17 @@
       <left style="medium">
         <color rgb="FFFF0000"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FFFF0000"/>
       </right>
@@ -172,9 +183,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -480,7 +492,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B9" sqref="B9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -629,15 +641,15 @@
         <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
